--- a/tests/fixtures/orderforms/1508.31.balsamic.xlsx
+++ b/tests/fixtures/orderforms/1508.31.balsamic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{491D85CE-E75E-5242-A580-5FA955736C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{376468EC-51DD-2344-BB12-8ED7B716331E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28140" yWindow="0" windowWidth="28800" windowHeight="15980" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-460" yWindow="1440" windowWidth="28800" windowHeight="16240" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="information" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="description" localSheetId="2">'Drop down lists'!$D$21</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="751">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -2179,9 +2179,6 @@
     <t>canfam3</t>
   </si>
   <si>
-    <t>This information is required for Balsamic QC analysis</t>
-  </si>
-  <si>
     <t>UDF/Reference Genome Microbial</t>
   </si>
   <si>
@@ -2513,9 +2510,6 @@
     <t>## PANEL ANALYSIS, NO % READS GUARANTEED##</t>
   </si>
   <si>
-    <t xml:space="preserve">New Application tags: PAZKTTR020, PAZKTTR060, PAZKTTR100 (more info here: https://clinical.scilifelab.se/applications) </t>
-  </si>
-  <si>
     <t>No delivery</t>
   </si>
   <si>
@@ -2706,12 +2700,6 @@
       </rPr>
       <t>No delivery. Mainly used for in-house testning.</t>
     </r>
-  </si>
-  <si>
-    <t>fibroblasts</t>
-  </si>
-  <si>
-    <t>Added fibroblastas as option for Sample Source</t>
   </si>
   <si>
     <t>Tomte</t>
@@ -2977,6 +2965,21 @@
       </rPr>
       <t xml:space="preserve"> = No analysis will be done, only sequencing and delivery of raw data (fastq-files).</t>
     </r>
+  </si>
+  <si>
+    <t>RNAPOAR400</t>
+  </si>
+  <si>
+    <t>New Application tags: PAZKTTR020, PAZKTTR060, PAZKTTR100 (more info here: https://clinical.scilifelab.se/applications) and RNAPOAR400</t>
+  </si>
+  <si>
+    <t>fibroblast</t>
+  </si>
+  <si>
+    <t>Added fibroblast as option for Sample Source</t>
+  </si>
+  <si>
+    <t>This information is required for Balsamic QC and Tomte analyses</t>
   </si>
   <si>
     <t>balsamicsample1</t>
@@ -3358,6 +3361,9 @@
   </si>
   <si>
     <t>plate1</t>
+  </si>
+  <si>
+    <t>GMSsolid</t>
   </si>
   <si>
     <t>6</t>
@@ -5070,8 +5076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A8" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5084,7 +5090,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="92" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5100,32 +5106,32 @@
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="93" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="93" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="93" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="93" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="93" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="93" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -5150,22 +5156,22 @@
     </row>
     <row r="19" spans="1:5" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="99" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="145" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="141" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="101" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="145" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.15">
@@ -5175,7 +5181,7 @@
     </row>
     <row r="24" spans="1:5" s="119" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="117" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -5185,7 +5191,7 @@
     </row>
     <row r="26" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="99" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
@@ -5212,7 +5218,7 @@
     </row>
     <row r="31" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="118" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -5242,7 +5248,7 @@
     </row>
     <row r="36" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="98" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -5287,7 +5293,7 @@
     </row>
     <row r="45" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="118" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -5302,12 +5308,12 @@
     </row>
     <row r="48" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="143" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="101" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
@@ -5342,17 +5348,17 @@
     </row>
     <row r="56" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="98" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="98" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="117" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -5405,7 +5411,7 @@
       <c r="A77" s="95"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uiDu0kWyLqDl2EviS5tsN51JYrHADNIue5Z39ZD6dRlPQTQm/RJZnWB+MvsHXT+1r+VnUByEV0kkQPvQ3/r14Q==" saltValue="OoRrP3GjfGX9s8cF/Ov5pw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Az2wlLBbKcA2IaDpdwqO+rUGyaVDITbOniexAyBq5l3N8zZMMPGngzDY9jolSmIMnBVScpasvuZZ1Ozohev9rQ==" saltValue="KbFuZSXuW5Z4rDgXrcdlGw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
     <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
@@ -5427,8 +5433,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="X5" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AK19" sqref="AK19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="AH15" sqref="AH15:AL16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -5458,7 +5464,7 @@
     <col min="26" max="26" width="17.1640625" style="2" customWidth="1"/>
     <col min="27" max="27" width="6.6640625" style="2" customWidth="1"/>
     <col min="28" max="31" width="8.83203125" style="2"/>
-    <col min="32" max="32" width="15.6640625" style="2" customWidth="1"/>
+    <col min="32" max="32" width="19.5" style="2" customWidth="1"/>
     <col min="33" max="33" width="8.83203125" style="2"/>
     <col min="34" max="35" width="10.6640625" style="2" customWidth="1"/>
     <col min="36" max="36" width="8.83203125" style="6"/>
@@ -11782,7 +11788,7 @@
       <c r="AD9" s="161"/>
       <c r="AE9" s="33"/>
       <c r="AF9" s="139" t="s">
-        <v>530</v>
+        <v>620</v>
       </c>
       <c r="AG9" s="33"/>
       <c r="AH9" s="166" t="s">
@@ -12908,7 +12914,7 @@
       </c>
       <c r="AE11" s="48"/>
       <c r="AF11" s="140" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AG11" s="48"/>
       <c r="AH11" s="39" t="s">
@@ -12918,7 +12924,7 @@
         <v>509</v>
       </c>
       <c r="AJ11" s="39" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AK11" s="39" t="s">
         <v>37</v>
@@ -12989,7 +12995,7 @@
         <v>46</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H13" s="56" t="s">
         <v>48</v>
@@ -13052,7 +13058,7 @@
       </c>
       <c r="AE13" s="61"/>
       <c r="AF13" s="141" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AG13" s="61"/>
       <c r="AH13" s="55" t="s">
@@ -13062,7 +13068,7 @@
         <v>503</v>
       </c>
       <c r="AJ13" s="55" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AK13" s="55" t="s">
         <v>60</v>
@@ -13115,7 +13121,7 @@
     </row>
     <row r="15" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="66" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B15" s="67" t="s">
         <v>72</v>
@@ -13127,7 +13133,7 @@
         <v>470</v>
       </c>
       <c r="E15" s="68" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F15" s="68" t="s">
         <v>81</v>
@@ -13151,14 +13157,14 @@
         <v>20</v>
       </c>
       <c r="M15" s="113" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N15" s="85" t="s">
         <v>70</v>
       </c>
       <c r="O15" s="50"/>
       <c r="P15" s="71" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="Q15" s="86" t="s">
         <v>78</v>
@@ -13171,10 +13177,10 @@
         <v>76</v>
       </c>
       <c r="U15" s="66" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="V15" s="72" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="W15" s="73"/>
       <c r="X15" s="88"/>
@@ -13196,13 +13202,13 @@
         <v>5</v>
       </c>
       <c r="AJ15" s="71" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="AK15" s="89">
         <v>10</v>
       </c>
       <c r="AL15" s="71" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="AM15"/>
       <c r="AN15"/>
@@ -14197,7 +14203,7 @@
     </row>
     <row r="16" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="66" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B16" s="67" t="s">
         <v>72</v>
@@ -14209,7 +14215,7 @@
         <v>470</v>
       </c>
       <c r="E16" s="68" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F16" s="68" t="s">
         <v>81</v>
@@ -14233,7 +14239,7 @@
         <v>21</v>
       </c>
       <c r="M16" s="113" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="N16" s="85" t="s">
         <v>80</v>
@@ -14243,7 +14249,7 @@
       <c r="Q16" s="86"/>
       <c r="R16" s="44"/>
       <c r="S16" s="89" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="T16" s="107" t="s">
         <v>87</v>
@@ -15263,7 +15269,7 @@
     </row>
     <row r="17" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="66" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B17" s="67" t="s">
         <v>72</v>
@@ -15275,7 +15281,7 @@
         <v>470</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F17" s="68" t="s">
         <v>92</v>
@@ -15299,7 +15305,7 @@
         <v>22</v>
       </c>
       <c r="M17" s="113" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N17" s="85" t="s">
         <v>80</v>
@@ -16327,7 +16333,7 @@
     </row>
     <row r="18" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="66" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B18" s="67" t="s">
         <v>72</v>
@@ -16339,7 +16345,7 @@
         <v>470</v>
       </c>
       <c r="E18" s="68" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F18" s="68" t="s">
         <v>92</v>
@@ -16363,7 +16369,7 @@
         <v>23</v>
       </c>
       <c r="M18" s="113" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N18" s="85" t="s">
         <v>80</v>
@@ -17391,7 +17397,7 @@
     </row>
     <row r="19" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="66" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B19" s="67" t="s">
         <v>72</v>
@@ -17403,7 +17409,7 @@
         <v>470</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F19" s="68" t="s">
         <v>457</v>
@@ -17427,7 +17433,7 @@
         <v>24</v>
       </c>
       <c r="M19" s="113" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="N19" s="85" t="s">
         <v>80</v>
@@ -18455,7 +18461,7 @@
     </row>
     <row r="20" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="66" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B20" s="67" t="s">
         <v>72</v>
@@ -18467,7 +18473,7 @@
         <v>470</v>
       </c>
       <c r="E20" s="68" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F20" s="68" t="s">
         <v>474</v>
@@ -18491,7 +18497,7 @@
         <v>25</v>
       </c>
       <c r="M20" s="113" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N20" s="85" t="s">
         <v>80</v>
@@ -19519,7 +19525,7 @@
     </row>
     <row r="21" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="66" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B21" s="67" t="s">
         <v>72</v>
@@ -19531,7 +19537,7 @@
         <v>470</v>
       </c>
       <c r="E21" s="68" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F21" s="68" t="s">
         <v>474</v>
@@ -19555,7 +19561,7 @@
         <v>26</v>
       </c>
       <c r="M21" s="113" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="N21" s="85" t="s">
         <v>80</v>
@@ -20583,7 +20589,7 @@
     </row>
     <row r="22" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="66" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B22" s="67" t="s">
         <v>72</v>
@@ -20595,7 +20601,7 @@
         <v>470</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F22" s="68" t="s">
         <v>458</v>
@@ -20619,7 +20625,7 @@
         <v>27</v>
       </c>
       <c r="M22" s="113" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="N22" s="85" t="s">
         <v>80</v>
@@ -21647,7 +21653,7 @@
     </row>
     <row r="23" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="66" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B23" s="67" t="s">
         <v>72</v>
@@ -21659,7 +21665,7 @@
         <v>470</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F23" s="68" t="s">
         <v>459</v>
@@ -21683,7 +21689,7 @@
         <v>28</v>
       </c>
       <c r="M23" s="113" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="N23" s="85" t="s">
         <v>80</v>
@@ -22711,7 +22717,7 @@
     </row>
     <row r="24" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="66" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B24" s="67" t="s">
         <v>72</v>
@@ -22723,7 +22729,7 @@
         <v>470</v>
       </c>
       <c r="E24" s="68" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F24" s="68" t="s">
         <v>475</v>
@@ -22747,7 +22753,7 @@
         <v>29</v>
       </c>
       <c r="M24" s="113" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N24" s="85" t="s">
         <v>80</v>
@@ -23775,7 +23781,7 @@
     </row>
     <row r="25" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="66" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B25" s="67" t="s">
         <v>72</v>
@@ -23787,7 +23793,7 @@
         <v>470</v>
       </c>
       <c r="E25" s="68" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F25" s="68" t="s">
         <v>475</v>
@@ -23811,7 +23817,7 @@
         <v>30</v>
       </c>
       <c r="M25" s="113" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="N25" s="85" t="s">
         <v>80</v>
@@ -24839,7 +24845,7 @@
     </row>
     <row r="26" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="66" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B26" s="67" t="s">
         <v>72</v>
@@ -24851,7 +24857,7 @@
         <v>470</v>
       </c>
       <c r="E26" s="68" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F26" s="68" t="s">
         <v>460</v>
@@ -24875,7 +24881,7 @@
         <v>31</v>
       </c>
       <c r="M26" s="113" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="N26" s="85" t="s">
         <v>80</v>
@@ -25903,7 +25909,7 @@
     </row>
     <row r="27" spans="1:1028" s="76" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="66" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B27" s="67" t="s">
         <v>72</v>
@@ -25915,7 +25921,7 @@
         <v>470</v>
       </c>
       <c r="E27" s="68" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F27" s="68" t="s">
         <v>131</v>
@@ -25939,7 +25945,7 @@
         <v>32</v>
       </c>
       <c r="M27" s="113" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="N27" s="85" t="s">
         <v>80</v>
@@ -25977,7 +25983,7 @@
     </row>
     <row r="28" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="66" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B28" s="67" t="s">
         <v>72</v>
@@ -25989,7 +25995,7 @@
         <v>470</v>
       </c>
       <c r="E28" s="68" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F28" s="68" t="s">
         <v>131</v>
@@ -26013,7 +26019,7 @@
         <v>33</v>
       </c>
       <c r="M28" s="113" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="N28" s="85" t="s">
         <v>80</v>
@@ -27041,7 +27047,7 @@
     </row>
     <row r="29" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="66" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B29" s="67" t="s">
         <v>72</v>
@@ -27053,7 +27059,7 @@
         <v>470</v>
       </c>
       <c r="E29" s="68" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F29" s="68" t="s">
         <v>136</v>
@@ -27077,7 +27083,7 @@
         <v>34</v>
       </c>
       <c r="M29" s="113" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="N29" s="85" t="s">
         <v>80</v>
@@ -28105,7 +28111,7 @@
     </row>
     <row r="30" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="66" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B30" s="67" t="s">
         <v>72</v>
@@ -28117,7 +28123,7 @@
         <v>470</v>
       </c>
       <c r="E30" s="68" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F30" s="68" t="s">
         <v>145</v>
@@ -28141,7 +28147,7 @@
         <v>35</v>
       </c>
       <c r="M30" s="113" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N30" s="85" t="s">
         <v>80</v>
@@ -29169,7 +29175,7 @@
     </row>
     <row r="31" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="66" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B31" s="67" t="s">
         <v>72</v>
@@ -29181,7 +29187,7 @@
         <v>470</v>
       </c>
       <c r="E31" s="68" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F31" s="68" t="s">
         <v>145</v>
@@ -29205,7 +29211,7 @@
         <v>36</v>
       </c>
       <c r="M31" s="113" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="N31" s="85" t="s">
         <v>80</v>
@@ -30233,7 +30239,7 @@
     </row>
     <row r="32" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="66" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B32" s="67" t="s">
         <v>72</v>
@@ -30245,10 +30251,10 @@
         <v>470</v>
       </c>
       <c r="E32" s="68" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F32" s="68" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G32" s="69" t="s">
         <v>82</v>
@@ -30269,7 +30275,7 @@
         <v>37</v>
       </c>
       <c r="M32" s="113" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="N32" s="85" t="s">
         <v>80</v>
@@ -31297,7 +31303,7 @@
     </row>
     <row r="33" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="66" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B33" s="67" t="s">
         <v>72</v>
@@ -31309,7 +31315,7 @@
         <v>470</v>
       </c>
       <c r="E33" s="68" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F33" s="68" t="s">
         <v>153</v>
@@ -31333,7 +31339,7 @@
         <v>38</v>
       </c>
       <c r="M33" s="113" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="N33" s="85" t="s">
         <v>80</v>
@@ -32361,7 +32367,7 @@
     </row>
     <row r="34" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="66" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B34" s="67" t="s">
         <v>72</v>
@@ -32373,7 +32379,7 @@
         <v>470</v>
       </c>
       <c r="E34" s="68" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F34" s="68" t="s">
         <v>131</v>
@@ -32397,7 +32403,7 @@
         <v>39</v>
       </c>
       <c r="M34" s="113" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="N34" s="85" t="s">
         <v>80</v>
@@ -33425,7 +33431,7 @@
     </row>
     <row r="35" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="66" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B35" s="67" t="s">
         <v>72</v>
@@ -33437,7 +33443,7 @@
         <v>470</v>
       </c>
       <c r="E35" s="68" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F35" s="68" t="s">
         <v>131</v>
@@ -33461,7 +33467,7 @@
         <v>40</v>
       </c>
       <c r="M35" s="113" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="N35" s="85" t="s">
         <v>80</v>
@@ -34489,7 +34495,7 @@
     </row>
     <row r="36" spans="1:1028" s="77" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="66" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B36" s="67" t="s">
         <v>72</v>
@@ -34501,7 +34507,7 @@
         <v>470</v>
       </c>
       <c r="E36" s="68" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F36" s="68" t="s">
         <v>136</v>
@@ -34525,7 +34531,7 @@
         <v>41</v>
       </c>
       <c r="M36" s="113" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="N36" s="85" t="s">
         <v>80</v>
@@ -34563,7 +34569,7 @@
     </row>
     <row r="37" spans="1:1028" s="77" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="66" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B37" s="67" t="s">
         <v>72</v>
@@ -34575,7 +34581,7 @@
         <v>470</v>
       </c>
       <c r="E37" s="68" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F37" s="68" t="s">
         <v>145</v>
@@ -34599,7 +34605,7 @@
         <v>42</v>
       </c>
       <c r="M37" s="113" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N37" s="85" t="s">
         <v>80</v>
@@ -34637,7 +34643,7 @@
     </row>
     <row r="38" spans="1:1028" s="77" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="66" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B38" s="67" t="s">
         <v>72</v>
@@ -34649,7 +34655,7 @@
         <v>470</v>
       </c>
       <c r="E38" s="68" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F38" s="68" t="s">
         <v>182</v>
@@ -34673,7 +34679,7 @@
         <v>43</v>
       </c>
       <c r="M38" s="113" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="N38" s="85" t="s">
         <v>80</v>
@@ -34691,7 +34697,9 @@
       <c r="U38" s="154"/>
       <c r="V38" s="155"/>
       <c r="W38" s="73"/>
-      <c r="X38" s="88"/>
+      <c r="X38" s="88" t="s">
+        <v>748</v>
+      </c>
       <c r="Y38" s="75"/>
       <c r="Z38" s="74" t="s">
         <v>77</v>
@@ -34711,7 +34719,7 @@
     </row>
     <row r="39" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="66" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B39" s="67" t="s">
         <v>72</v>
@@ -34723,7 +34731,7 @@
         <v>470</v>
       </c>
       <c r="E39" s="68" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F39" s="68" t="s">
         <v>182</v>
@@ -34747,7 +34755,7 @@
         <v>44</v>
       </c>
       <c r="M39" s="113" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="N39" s="85" t="s">
         <v>80</v>
@@ -34765,7 +34773,9 @@
       <c r="U39" s="154"/>
       <c r="V39" s="155"/>
       <c r="W39" s="73"/>
-      <c r="X39" s="88"/>
+      <c r="X39" s="88" t="s">
+        <v>748</v>
+      </c>
       <c r="Y39" s="75"/>
       <c r="Z39" s="74" t="s">
         <v>88</v>
@@ -35775,7 +35785,7 @@
     </row>
     <row r="40" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="66" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B40" s="67" t="s">
         <v>72</v>
@@ -35787,7 +35797,7 @@
         <v>470</v>
       </c>
       <c r="E40" s="68" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F40" s="68" t="s">
         <v>188</v>
@@ -35811,7 +35821,7 @@
         <v>45</v>
       </c>
       <c r="M40" s="113" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="N40" s="85" t="s">
         <v>80</v>
@@ -35829,7 +35839,9 @@
       <c r="U40" s="154"/>
       <c r="V40" s="155"/>
       <c r="W40" s="73"/>
-      <c r="X40" s="88"/>
+      <c r="X40" s="88" t="s">
+        <v>748</v>
+      </c>
       <c r="Y40" s="75"/>
       <c r="Z40" s="74" t="s">
         <v>88</v>
@@ -36839,7 +36851,7 @@
     </row>
     <row r="41" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="66" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B41" s="67" t="s">
         <v>72</v>
@@ -36851,7 +36863,7 @@
         <v>470</v>
       </c>
       <c r="E41" s="68" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F41" s="68" t="s">
         <v>485</v>
@@ -36875,7 +36887,7 @@
         <v>46</v>
       </c>
       <c r="M41" s="113" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="N41" s="85" t="s">
         <v>80</v>
@@ -36893,7 +36905,9 @@
       <c r="U41" s="154"/>
       <c r="V41" s="155"/>
       <c r="W41" s="73"/>
-      <c r="X41" s="88"/>
+      <c r="X41" s="88" t="s">
+        <v>748</v>
+      </c>
       <c r="Y41" s="75"/>
       <c r="Z41" s="74" t="s">
         <v>88</v>
@@ -37903,7 +37917,7 @@
     </row>
     <row r="42" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="66" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B42" s="67" t="s">
         <v>72</v>
@@ -37915,10 +37929,10 @@
         <v>470</v>
       </c>
       <c r="E42" s="68" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F42" s="68" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G42" s="69" t="s">
         <v>71</v>
@@ -37939,7 +37953,7 @@
         <v>47</v>
       </c>
       <c r="M42" s="113" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="N42" s="85" t="s">
         <v>80</v>
@@ -37957,7 +37971,9 @@
       <c r="U42" s="154"/>
       <c r="V42" s="155"/>
       <c r="W42" s="73"/>
-      <c r="X42" s="88"/>
+      <c r="X42" s="88" t="s">
+        <v>748</v>
+      </c>
       <c r="Y42" s="75"/>
       <c r="Z42" s="74" t="s">
         <v>88</v>
@@ -38967,7 +38983,7 @@
     </row>
     <row r="43" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="66" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B43" s="67" t="s">
         <v>72</v>
@@ -38979,7 +38995,7 @@
         <v>470</v>
       </c>
       <c r="E43" s="68" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F43" s="68" t="s">
         <v>495</v>
@@ -39003,7 +39019,7 @@
         <v>48</v>
       </c>
       <c r="M43" s="113" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="N43" s="85" t="s">
         <v>80</v>
@@ -39021,7 +39037,9 @@
       <c r="U43" s="154"/>
       <c r="V43" s="155"/>
       <c r="W43" s="73"/>
-      <c r="X43" s="88"/>
+      <c r="X43" s="88" t="s">
+        <v>748</v>
+      </c>
       <c r="Y43" s="75"/>
       <c r="Z43" s="74" t="s">
         <v>88</v>
@@ -40031,7 +40049,7 @@
     </row>
     <row r="44" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="66" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B44" s="67" t="s">
         <v>72</v>
@@ -40043,10 +40061,10 @@
         <v>470</v>
       </c>
       <c r="E44" s="68" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F44" s="68" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G44" s="69" t="s">
         <v>71</v>
@@ -40067,7 +40085,7 @@
         <v>49</v>
       </c>
       <c r="M44" s="113" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="N44" s="85" t="s">
         <v>80</v>
@@ -40085,7 +40103,9 @@
       <c r="U44" s="154"/>
       <c r="V44" s="155"/>
       <c r="W44" s="73"/>
-      <c r="X44" s="88"/>
+      <c r="X44" s="88" t="s">
+        <v>748</v>
+      </c>
       <c r="Y44" s="75"/>
       <c r="Z44" s="74" t="s">
         <v>88</v>
@@ -41095,7 +41115,7 @@
     </row>
     <row r="45" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="66" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B45" s="67" t="s">
         <v>72</v>
@@ -41107,7 +41127,7 @@
         <v>470</v>
       </c>
       <c r="E45" s="68" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F45" s="68" t="s">
         <v>182</v>
@@ -41131,7 +41151,7 @@
         <v>50</v>
       </c>
       <c r="M45" s="113" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="N45" s="85" t="s">
         <v>80</v>
@@ -41149,7 +41169,9 @@
       <c r="U45" s="154"/>
       <c r="V45" s="155"/>
       <c r="W45" s="73"/>
-      <c r="X45" s="88"/>
+      <c r="X45" s="88" t="s">
+        <v>748</v>
+      </c>
       <c r="Y45" s="75"/>
       <c r="Z45" s="74" t="s">
         <v>88</v>
@@ -42159,7 +42181,7 @@
     </row>
     <row r="46" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="66" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B46" s="67" t="s">
         <v>72</v>
@@ -42171,7 +42193,7 @@
         <v>470</v>
       </c>
       <c r="E46" s="68" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F46" s="68" t="s">
         <v>182</v>
@@ -42195,7 +42217,7 @@
         <v>51</v>
       </c>
       <c r="M46" s="113" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="N46" s="85" t="s">
         <v>80</v>
@@ -42213,7 +42235,9 @@
       <c r="U46" s="154"/>
       <c r="V46" s="155"/>
       <c r="W46" s="73"/>
-      <c r="X46" s="88"/>
+      <c r="X46" s="88" t="s">
+        <v>748</v>
+      </c>
       <c r="Y46" s="75"/>
       <c r="Z46" s="74" t="s">
         <v>88</v>
@@ -43223,7 +43247,7 @@
     </row>
     <row r="47" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="66" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B47" s="67" t="s">
         <v>72</v>
@@ -43235,7 +43259,7 @@
         <v>470</v>
       </c>
       <c r="E47" s="68" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F47" s="68" t="s">
         <v>188</v>
@@ -43259,7 +43283,7 @@
         <v>52</v>
       </c>
       <c r="M47" s="113" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="N47" s="85" t="s">
         <v>80</v>
@@ -43277,7 +43301,9 @@
       <c r="U47" s="154"/>
       <c r="V47" s="155"/>
       <c r="W47" s="73"/>
-      <c r="X47" s="88"/>
+      <c r="X47" s="88" t="s">
+        <v>748</v>
+      </c>
       <c r="Y47" s="75"/>
       <c r="Z47" s="74" t="s">
         <v>88</v>
@@ -44287,7 +44313,7 @@
     </row>
     <row r="48" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="66" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B48" s="67" t="s">
         <v>72</v>
@@ -44299,7 +44325,7 @@
         <v>470</v>
       </c>
       <c r="E48" s="68" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F48" s="68" t="s">
         <v>188</v>
@@ -44323,7 +44349,7 @@
         <v>53</v>
       </c>
       <c r="M48" s="113" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="N48" s="85" t="s">
         <v>80</v>
@@ -44341,7 +44367,9 @@
       <c r="U48" s="154"/>
       <c r="V48" s="155"/>
       <c r="W48" s="73"/>
-      <c r="X48" s="88"/>
+      <c r="X48" s="88" t="s">
+        <v>748</v>
+      </c>
       <c r="Y48" s="75"/>
       <c r="Z48" s="74" t="s">
         <v>88</v>
@@ -45351,7 +45379,7 @@
     </row>
     <row r="49" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="66" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B49" s="67" t="s">
         <v>72</v>
@@ -45363,7 +45391,7 @@
         <v>470</v>
       </c>
       <c r="E49" s="68" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F49" s="68" t="s">
         <v>485</v>
@@ -45387,7 +45415,7 @@
         <v>54</v>
       </c>
       <c r="M49" s="113" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="N49" s="85" t="s">
         <v>80</v>
@@ -45405,7 +45433,9 @@
       <c r="U49" s="154"/>
       <c r="V49" s="155"/>
       <c r="W49" s="73"/>
-      <c r="X49" s="88"/>
+      <c r="X49" s="88" t="s">
+        <v>748</v>
+      </c>
       <c r="Y49" s="75"/>
       <c r="Z49" s="74" t="s">
         <v>88</v>
@@ -46415,7 +46445,7 @@
     </row>
     <row r="50" spans="1:1028" s="79" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="78" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B50" s="67" t="s">
         <v>72</v>
@@ -46427,7 +46457,7 @@
         <v>470</v>
       </c>
       <c r="E50" s="68" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F50" s="68" t="s">
         <v>485</v>
@@ -46451,7 +46481,7 @@
         <v>55</v>
       </c>
       <c r="M50" s="113" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="N50" s="85" t="s">
         <v>80</v>
@@ -46461,7 +46491,7 @@
       <c r="Q50" s="86"/>
       <c r="R50" s="44"/>
       <c r="S50" s="89" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="T50" s="107" t="s">
         <v>93</v>
@@ -46469,7 +46499,9 @@
       <c r="U50" s="154"/>
       <c r="V50" s="155"/>
       <c r="W50" s="73"/>
-      <c r="X50" s="88"/>
+      <c r="X50" s="88" t="s">
+        <v>748</v>
+      </c>
       <c r="Y50" s="75"/>
       <c r="Z50" s="74" t="s">
         <v>88</v>
@@ -46489,7 +46521,7 @@
     </row>
     <row r="51" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="78" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B51" s="67" t="s">
         <v>72</v>
@@ -46501,10 +46533,10 @@
         <v>470</v>
       </c>
       <c r="E51" s="68" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F51" s="68" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G51" s="69" t="s">
         <v>71</v>
@@ -46525,7 +46557,7 @@
         <v>56</v>
       </c>
       <c r="M51" s="113" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N51" s="85" t="s">
         <v>80</v>
@@ -46543,7 +46575,9 @@
       <c r="U51" s="154"/>
       <c r="V51" s="155"/>
       <c r="W51" s="73"/>
-      <c r="X51" s="88"/>
+      <c r="X51" s="88" t="s">
+        <v>748</v>
+      </c>
       <c r="Y51" s="75"/>
       <c r="Z51" s="74" t="s">
         <v>88</v>
@@ -47553,7 +47587,7 @@
     </row>
     <row r="52" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="78" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B52" s="67" t="s">
         <v>72</v>
@@ -47565,10 +47599,10 @@
         <v>470</v>
       </c>
       <c r="E52" s="68" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F52" s="68" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G52" s="69" t="s">
         <v>71</v>
@@ -47589,7 +47623,7 @@
         <v>57</v>
       </c>
       <c r="M52" s="113" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="N52" s="85" t="s">
         <v>80</v>
@@ -47607,7 +47641,9 @@
       <c r="U52" s="154"/>
       <c r="V52" s="155"/>
       <c r="W52" s="73"/>
-      <c r="X52" s="88"/>
+      <c r="X52" s="88" t="s">
+        <v>748</v>
+      </c>
       <c r="Y52" s="75"/>
       <c r="Z52" s="74" t="s">
         <v>88</v>
@@ -48617,7 +48653,7 @@
     </row>
     <row r="53" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="78" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B53" s="67" t="s">
         <v>72</v>
@@ -48629,7 +48665,7 @@
         <v>470</v>
       </c>
       <c r="E53" s="68" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F53" s="68" t="s">
         <v>495</v>
@@ -48653,7 +48689,7 @@
         <v>58</v>
       </c>
       <c r="M53" s="113" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="N53" s="85" t="s">
         <v>80</v>
@@ -48671,7 +48707,9 @@
       <c r="U53" s="154"/>
       <c r="V53" s="155"/>
       <c r="W53" s="73"/>
-      <c r="X53" s="88"/>
+      <c r="X53" s="88" t="s">
+        <v>748</v>
+      </c>
       <c r="Y53" s="75"/>
       <c r="Z53" s="74" t="s">
         <v>88</v>
@@ -49681,7 +49719,7 @@
     </row>
     <row r="54" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="78" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B54" s="67" t="s">
         <v>72</v>
@@ -49693,7 +49731,7 @@
         <v>470</v>
       </c>
       <c r="E54" s="68" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F54" s="68" t="s">
         <v>495</v>
@@ -49717,7 +49755,7 @@
         <v>59</v>
       </c>
       <c r="M54" s="113" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="N54" s="85" t="s">
         <v>80</v>
@@ -49735,7 +49773,9 @@
       <c r="U54" s="154"/>
       <c r="V54" s="155"/>
       <c r="W54" s="73"/>
-      <c r="X54" s="88"/>
+      <c r="X54" s="88" t="s">
+        <v>748</v>
+      </c>
       <c r="Y54" s="75"/>
       <c r="Z54" s="74" t="s">
         <v>88</v>
@@ -50745,7 +50785,7 @@
     </row>
     <row r="55" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="78" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B55" s="67" t="s">
         <v>72</v>
@@ -50757,10 +50797,10 @@
         <v>470</v>
       </c>
       <c r="E55" s="68" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F55" s="68" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G55" s="69" t="s">
         <v>71</v>
@@ -50781,7 +50821,7 @@
         <v>60</v>
       </c>
       <c r="M55" s="113" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="N55" s="85" t="s">
         <v>80</v>
@@ -50799,7 +50839,9 @@
       <c r="U55" s="154"/>
       <c r="V55" s="155"/>
       <c r="W55" s="73"/>
-      <c r="X55" s="88"/>
+      <c r="X55" s="88" t="s">
+        <v>748</v>
+      </c>
       <c r="Y55" s="75"/>
       <c r="Z55" s="74" t="s">
         <v>88</v>
@@ -51809,7 +51851,7 @@
     </row>
     <row r="56" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="78" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B56" s="67" t="s">
         <v>72</v>
@@ -51821,10 +51863,10 @@
         <v>470</v>
       </c>
       <c r="E56" s="68" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F56" s="68" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G56" s="69" t="s">
         <v>71</v>
@@ -51845,7 +51887,7 @@
         <v>61</v>
       </c>
       <c r="M56" s="113" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="N56" s="85" t="s">
         <v>80</v>
@@ -51863,7 +51905,9 @@
       <c r="U56" s="154"/>
       <c r="V56" s="155"/>
       <c r="W56" s="73"/>
-      <c r="X56" s="88"/>
+      <c r="X56" s="88" t="s">
+        <v>748</v>
+      </c>
       <c r="Y56" s="75"/>
       <c r="Z56" s="74" t="s">
         <v>88</v>
@@ -72351,7 +72395,7 @@
       <c r="AL395" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GbtqGQlG+uvH7fqz1D7DgHNT8lsfp7sJc0FxoH2qRGGZQqOh+f4lZJw0ClOQLLe88RZJWejjJfuBcH4ASw+ziA==" saltValue="nFlSlisQq3Z1NxAA2xdnEw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XjkAllgKaArO0BnzJ3r4hLtiLzDWpSVxIXw2fqAW/kRh8YWL8tRYlSRkZN0Lah5yZnT10dvb7tfqTaNzi8W/nQ==" saltValue="Q6bYP4VeeNu06RT7ecgiqw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="5">
     <mergeCell ref="A9:N9"/>
     <mergeCell ref="AB9:AD9"/>
@@ -72474,12 +72518,6 @@
           </x14:formula1>
           <xm:sqref>G15:G395</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4C459A59-671B-2646-953F-0ABF3B6CC601}">
-          <x14:formula1>
-            <xm:f>'Drop down lists'!$D$3:$D$40</xm:f>
-          </x14:formula1>
-          <xm:sqref>F15:F395</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CAFFBB78-152F-CC49-B904-7BF78A43F701}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$C$3:$C$10</xm:f>
@@ -72504,6 +72542,12 @@
           </x14:formula1>
           <xm:sqref>C15:C394</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4C459A59-671B-2646-953F-0ABF3B6CC601}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!$D$3:$D$41</xm:f>
+          </x14:formula1>
+          <xm:sqref>F15:F395</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -72517,8 +72561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:AM214"/>
   <sheetViews>
-    <sheetView topLeftCell="A183" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G211" sqref="G211"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -72548,7 +72592,7 @@
         <v>46</v>
       </c>
       <c r="E2" s="121" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F2" s="56" t="s">
         <v>44</v>
@@ -72711,7 +72755,7 @@
         <v>89</v>
       </c>
       <c r="N4" s="131" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O4" s="129">
         <v>10</v>
@@ -72734,7 +72778,7 @@
         <v>486</v>
       </c>
       <c r="B5" s="114" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C5" s="126" t="s">
         <v>471</v>
@@ -72764,7 +72808,7 @@
         <v>97</v>
       </c>
       <c r="N5" s="131" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O5" s="129">
         <v>15</v>
@@ -72781,7 +72825,7 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B6" s="114" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C6" s="126" t="s">
         <v>522</v>
@@ -72858,13 +72902,13 @@
         <v>110</v>
       </c>
       <c r="G8" s="128" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M8" s="134" t="s">
         <v>112</v>
       </c>
       <c r="N8" s="131" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O8" s="129">
         <v>30</v>
@@ -72878,7 +72922,7 @@
         <v>506</v>
       </c>
       <c r="C9" s="114" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D9" s="114" t="s">
         <v>458</v>
@@ -72907,7 +72951,7 @@
         <v>469</v>
       </c>
       <c r="C10" s="114" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D10" s="114" t="s">
         <v>459</v>
@@ -72922,7 +72966,7 @@
         <v>120</v>
       </c>
       <c r="N10" s="131" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O10" s="129">
         <v>40</v>
@@ -72940,13 +72984,13 @@
         <v>123</v>
       </c>
       <c r="G11" s="135" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M11" s="130" t="s">
         <v>125</v>
       </c>
       <c r="N11" s="131" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O11" s="129">
         <v>45</v>
@@ -72963,13 +73007,13 @@
         <v>127</v>
       </c>
       <c r="G12" s="135" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M12" s="134" t="s">
         <v>129</v>
       </c>
       <c r="N12" s="131" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="O12" s="129">
         <v>50</v>
@@ -72986,13 +73030,13 @@
         <v>132</v>
       </c>
       <c r="G13" s="156" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="M13" s="134" t="s">
         <v>134</v>
       </c>
       <c r="N13" s="131" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O13" s="129">
         <v>55</v>
@@ -73016,7 +73060,7 @@
         <v>139</v>
       </c>
       <c r="N14" s="131" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O14" s="129">
         <v>60</v>
@@ -73060,7 +73104,7 @@
         <v>146</v>
       </c>
       <c r="G16" s="128" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M16" s="134" t="s">
         <v>148</v>
@@ -73104,7 +73148,7 @@
       <c r="B18" s="137"/>
       <c r="C18" s="137"/>
       <c r="D18" s="114" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F18" s="128" t="s">
         <v>154</v>
@@ -73116,7 +73160,7 @@
         <v>155</v>
       </c>
       <c r="N18" s="131" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O18" s="129">
         <v>80</v>
@@ -73163,7 +73207,7 @@
         <v>161</v>
       </c>
       <c r="N20" s="131" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="O20" s="129">
         <v>90</v>
@@ -73181,7 +73225,7 @@
         <v>163</v>
       </c>
       <c r="G21" s="128" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M21" s="134" t="s">
         <v>164</v>
@@ -73225,7 +73269,7 @@
       <c r="B23" s="137"/>
       <c r="C23" s="137"/>
       <c r="D23" s="114" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F23" s="128" t="s">
         <v>169</v>
@@ -73253,7 +73297,7 @@
         <v>173</v>
       </c>
       <c r="N24" s="131" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R24" s="128">
         <v>21</v>
@@ -73263,7 +73307,7 @@
       <c r="B25" s="137"/>
       <c r="C25" s="137"/>
       <c r="D25" s="114" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F25" s="128" t="s">
         <v>176</v>
@@ -73283,7 +73327,7 @@
       <c r="B26" s="137"/>
       <c r="C26" s="137"/>
       <c r="D26" s="114" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F26" s="128" t="s">
         <v>179</v>
@@ -73293,7 +73337,7 @@
         <v>180</v>
       </c>
       <c r="N26" s="131" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R26" s="128">
         <v>23</v>
@@ -73303,7 +73347,7 @@
       <c r="B27" s="137"/>
       <c r="C27" s="137"/>
       <c r="D27" s="114" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F27" s="128" t="s">
         <v>183</v>
@@ -73323,7 +73367,7 @@
       <c r="B28" s="137"/>
       <c r="C28" s="137"/>
       <c r="D28" s="114" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F28" s="128" t="s">
         <v>186</v>
@@ -73343,7 +73387,7 @@
       <c r="B29" s="137"/>
       <c r="C29" s="137"/>
       <c r="D29" s="114" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F29" s="128" t="s">
         <v>189</v>
@@ -73353,7 +73397,7 @@
         <v>190</v>
       </c>
       <c r="N29" s="131" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R29" s="128">
         <v>26</v>
@@ -73393,7 +73437,7 @@
         <v>196</v>
       </c>
       <c r="N31" s="131" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="R31" s="128">
         <v>28</v>
@@ -73412,7 +73456,7 @@
         <v>199</v>
       </c>
       <c r="N32" s="157" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="R32" s="128">
         <v>29</v>
@@ -73422,7 +73466,7 @@
       <c r="B33" s="137"/>
       <c r="C33" s="137"/>
       <c r="D33" s="114" t="s">
-        <v>576</v>
+        <v>616</v>
       </c>
       <c r="F33" s="128" t="s">
         <v>201</v>
@@ -73431,7 +73475,7 @@
         <v>202</v>
       </c>
       <c r="N33" s="131" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="R33" s="128">
         <v>30</v>
@@ -73441,7 +73485,7 @@
       <c r="B34" s="137"/>
       <c r="C34" s="137"/>
       <c r="D34" s="114" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F34" s="128" t="s">
         <v>204</v>
@@ -73450,7 +73494,7 @@
         <v>205</v>
       </c>
       <c r="N34" s="157" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="R34" s="128">
         <v>31</v>
@@ -73460,7 +73504,7 @@
       <c r="B35" s="137"/>
       <c r="C35" s="137"/>
       <c r="D35" s="114" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F35" s="128" t="s">
         <v>207</v>
@@ -73479,7 +73523,7 @@
       <c r="B36" s="137"/>
       <c r="C36" s="137"/>
       <c r="D36" s="114" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F36" s="128" t="s">
         <v>210</v>
@@ -73498,7 +73542,7 @@
       <c r="B37" s="137"/>
       <c r="C37" s="137"/>
       <c r="D37" s="114" t="s">
-        <v>482</v>
+        <v>578</v>
       </c>
       <c r="F37" s="128" t="s">
         <v>213</v>
@@ -73517,7 +73561,7 @@
       <c r="B38" s="137"/>
       <c r="C38" s="137"/>
       <c r="D38" s="114" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F38" s="128" t="s">
         <v>217</v>
@@ -73536,7 +73580,7 @@
       <c r="B39" s="137"/>
       <c r="C39" s="137"/>
       <c r="D39" s="114" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F39" s="128" t="s">
         <v>220</v>
@@ -73555,7 +73599,7 @@
       <c r="B40" s="137"/>
       <c r="C40" s="137"/>
       <c r="D40" s="114" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="F40" s="128" t="s">
         <v>223</v>
@@ -73572,6 +73616,9 @@
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B41" s="137"/>
+      <c r="D41" s="114" t="s">
+        <v>496</v>
+      </c>
       <c r="F41" s="128" t="s">
         <v>226</v>
       </c>
@@ -73621,7 +73668,7 @@
         <v>233</v>
       </c>
       <c r="N44" s="131" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="R44" s="128">
         <v>41</v>
@@ -73635,7 +73682,7 @@
         <v>235</v>
       </c>
       <c r="N45" s="131" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="R45" s="128">
         <v>42</v>
@@ -73649,7 +73696,7 @@
         <v>237</v>
       </c>
       <c r="N46" s="131" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="R46" s="128">
         <v>43</v>
@@ -73663,7 +73710,7 @@
         <v>239</v>
       </c>
       <c r="N47" s="157" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="R47" s="128">
         <v>44</v>
@@ -73705,7 +73752,7 @@
         <v>245</v>
       </c>
       <c r="N50" s="131" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="R50" s="128">
         <v>47</v>
@@ -73747,7 +73794,7 @@
         <v>251</v>
       </c>
       <c r="N53" s="131" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="R53" s="128">
         <v>50</v>
@@ -73761,7 +73808,7 @@
         <v>253</v>
       </c>
       <c r="N54" s="131" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="R54" s="128">
         <v>51</v>
@@ -73775,7 +73822,7 @@
         <v>255</v>
       </c>
       <c r="N55" s="131" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="R55" s="128">
         <v>52</v>
@@ -73817,7 +73864,7 @@
         <v>261</v>
       </c>
       <c r="N58" s="131" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="R58" s="128">
         <v>55</v>
@@ -73845,7 +73892,7 @@
         <v>265</v>
       </c>
       <c r="N60" s="131" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="R60" s="128">
         <v>57</v>
@@ -73859,7 +73906,7 @@
         <v>267</v>
       </c>
       <c r="N61" s="131" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="R61" s="128">
         <v>58</v>
@@ -73873,7 +73920,7 @@
         <v>269</v>
       </c>
       <c r="N62" s="131" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="R62" s="128">
         <v>59</v>
@@ -73901,7 +73948,7 @@
         <v>273</v>
       </c>
       <c r="N64" s="131" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="R64" s="128">
         <v>61</v>
@@ -73929,7 +73976,7 @@
         <v>277</v>
       </c>
       <c r="N66" s="131" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R66" s="128">
         <v>63</v>
@@ -73943,7 +73990,7 @@
         <v>279</v>
       </c>
       <c r="N67" s="131" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="R67" s="128">
         <v>64</v>
@@ -73971,7 +74018,7 @@
         <v>283</v>
       </c>
       <c r="N69" s="157" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="R69" s="128">
         <v>66</v>
@@ -74013,7 +74060,7 @@
         <v>289</v>
       </c>
       <c r="N72" s="157" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="R72" s="128">
         <v>69</v>
@@ -74069,7 +74116,7 @@
         <v>297</v>
       </c>
       <c r="N76" s="157" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="R76" s="128">
         <v>73</v>
@@ -74097,7 +74144,7 @@
         <v>301</v>
       </c>
       <c r="N78" s="157" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="R78" s="128">
         <v>75</v>
@@ -74935,51 +74982,51 @@
     </row>
     <row r="206" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F206" s="132" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="207" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F207" s="128" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="208" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F208" s="132" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="209" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F209" s="128" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="210" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F210" s="128" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="211" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F211" s="128" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="212" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F212" s="128" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="213" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F213" s="128" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="214" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F214" s="128" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZkEFQwrdm3lFFGCp6toN04uZQlNJKk1KIo0PxCp6crRbX7trMuYvpJWZpRbOu1YggcYE7uqVXJ+je0CxbdfNMg==" saltValue="n9J2pHKiqVILciALkLvwNQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SJt2qR4NNL89gjMLz3lb8KS7U2Wy/60p9MEG62c44OLvpVapJvqU92XgGY/Lm1PgddmhSAS4QKVtPeoEyj1TqQ==" saltValue="3kDAI0+xsp0mqQhPySbK0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
